--- a/data/CompanyRequirements.xlsx
+++ b/data/CompanyRequirements.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhay Sundaram\JLLPortal\portal\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>RSF</t>
   </si>
@@ -37,23 +27,27 @@
   <si>
     <t>market</t>
   </si>
+  <si>
+    <t>clientId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,24 +63,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -352,16 +338,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="10.85546875"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,8 +367,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/CompanyRequirements.xlsx
+++ b/data/CompanyRequirements.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhay Sundaram\JLLPortal\portal\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="152511"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>RSF</t>
   </si>
@@ -34,20 +39,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,16 +67,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -338,23 +350,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="10.85546875"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -371,107 +380,263 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="E2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3800000</v>
+      </c>
+      <c r="B2">
+        <v>13500</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="E3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>600000</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="E4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>652917</v>
+      </c>
+      <c r="B4">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>12113</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="E5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>759658</v>
+      </c>
+      <c r="B5">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>7256</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="E6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>1586434</v>
+      </c>
+      <c r="B6">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>8665</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="E7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>3684071</v>
+      </c>
+      <c r="B7">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>2665</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="E8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>2364907</v>
+      </c>
+      <c r="B8">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>11323</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="E9" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>1735672</v>
+      </c>
+      <c r="B9">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>5622</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="E10" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>1053332</v>
+      </c>
+      <c r="B10">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>12285</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="E11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>3541959</v>
+      </c>
+      <c r="B11">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>10574</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="E12" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>2665451</v>
+      </c>
+      <c r="B12">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>5051</v>
+      </c>
+      <c r="E12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="E13" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>2787906</v>
+      </c>
+      <c r="B13">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>12845</v>
+      </c>
+      <c r="E13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="E14" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>3046057</v>
+      </c>
+      <c r="B14">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>7778</v>
+      </c>
+      <c r="E14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="E15" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>1565074</v>
+      </c>
+      <c r="B15">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>4476</v>
+      </c>
+      <c r="E15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="E16" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>1965310</v>
+      </c>
+      <c r="B16">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>9786</v>
+      </c>
+      <c r="E16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="E17" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>2559827</v>
+      </c>
+      <c r="B17">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>11076</v>
+      </c>
+      <c r="E17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>3216874</v>
+      </c>
+      <c r="B18">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>4358</v>
+      </c>
+      <c r="E18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>3315830</v>
+      </c>
+      <c r="B19">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>1762</v>
+      </c>
+      <c r="E19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>2196911</v>
+      </c>
+      <c r="B20">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>10140</v>
+      </c>
+      <c r="E20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="E21" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f ca="1">RANDBETWEEN(A3,A2)</f>
+        <v>3217966</v>
+      </c>
+      <c r="B21">
+        <f ca="1">RANDBETWEEN(B3,B2)</f>
+        <v>5779</v>
+      </c>
+      <c r="E21">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/CompanyRequirements.xlsx
+++ b/data/CompanyRequirements.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhay Sundaram\JLLPortal\portal\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="152511"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>RSF</t>
   </si>
@@ -39,19 +34,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,24 +63,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -350,20 +338,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,263 +372,263 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="A2" t="n">
         <v>3800000</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>13500</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
         <v>600000</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1500</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>652917</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B4">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>12113</v>
-      </c>
-      <c r="E4">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>759658</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B5">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>7256</v>
-      </c>
-      <c r="E5">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>1586434</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B6">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>8665</v>
-      </c>
-      <c r="E6">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>3684071</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B7">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>2665</v>
-      </c>
-      <c r="E7">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>2364907</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B8">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>11323</v>
-      </c>
-      <c r="E8">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>1735672</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B9">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>5622</v>
-      </c>
-      <c r="E9">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>1053332</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B10">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>12285</v>
-      </c>
-      <c r="E10">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>3541959</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B11">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>10574</v>
-      </c>
-      <c r="E11">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>2665451</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B12">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>5051</v>
-      </c>
-      <c r="E12">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E12" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>2787906</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B13">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>12845</v>
-      </c>
-      <c r="E13">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E13" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>3046057</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B14">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>7778</v>
-      </c>
-      <c r="E14">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E14" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>1565074</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B15">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>4476</v>
-      </c>
-      <c r="E15">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E15" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>1965310</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B16">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>9786</v>
-      </c>
-      <c r="E16">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E16" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>2559827</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B17">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>11076</v>
-      </c>
-      <c r="E17">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E17" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>3216874</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B18">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>4358</v>
-      </c>
-      <c r="E18">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E18" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>3315830</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B19">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>1762</v>
-      </c>
-      <c r="E19">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E19" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>2196911</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B20">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>10140</v>
-      </c>
-      <c r="E20">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E20" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
-        <f ca="1">RANDBETWEEN(A3,A2)</f>
-        <v>3217966</v>
+        <f>RANDBETWEEN(A3,A2)</f>
+        <v/>
       </c>
       <c r="B21">
-        <f ca="1">RANDBETWEEN(B3,B2)</f>
-        <v>5779</v>
-      </c>
-      <c r="E21">
+        <f>RANDBETWEEN(B3,B2)</f>
+        <v/>
+      </c>
+      <c r="E21" t="n">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>